--- a/biology/Médecine/Acantholyse/Acantholyse.xlsx
+++ b/biology/Médecine/Acantholyse/Acantholyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acantholyse est une dislocation des cellules constituant la couche moyenne de l'épiderme (épithélium malpighien) due à une perte d'adhérence entre elles. Elle provoque un décollement cutané formant des bulles dites flasques (par opposition aux bulles tendues, lors de lésions plus profondes), pouvant s'éroder. Il s'agit de la principale manifestation clinique du pemphigus : un anticorps anti-desmosome provoque la perte d'adhérence cellulaire conduisant à la dermatose bulleuse.
 </t>
@@ -511,7 +523,9 @@
           <t>Etiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acantholyse primaire
 pemphigus vulgaire
